--- a/Excel/TaskConfig.xlsx
+++ b/Excel/TaskConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79EB8953-C971-4069-82B7-6D29A92FB031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD27C05F-FD17-4EB6-9EF5-67CE23A371E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24730" yWindow="1500" windowWidth="28800" windowHeight="15310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TaskConfig" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>Id</t>
   </si>
@@ -68,42 +68,9 @@
     <t>赠送好友体力1次</t>
   </si>
   <si>
-    <t>通关（活动）关卡</t>
-  </si>
-  <si>
-    <t>养成装备1次</t>
-  </si>
-  <si>
-    <t>消耗1000金币</t>
-  </si>
-  <si>
-    <t>完成3个每日任务</t>
-  </si>
-  <si>
-    <t>完成5个每日任务</t>
-  </si>
-  <si>
-    <t>完成7个每日任务</t>
-  </si>
-  <si>
-    <t>购买1次体力</t>
-  </si>
-  <si>
     <t>通过任意资源获取关卡1次</t>
   </si>
   <si>
-    <t>通过任意关卡3次</t>
-  </si>
-  <si>
-    <t>从商店中购买任意商品1次</t>
-  </si>
-  <si>
-    <t>参与公会战BOSS1次</t>
-  </si>
-  <si>
-    <t>升级英雄1次</t>
-  </si>
-  <si>
     <t>任务奖励ID</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -118,13 +85,67 @@
   <si>
     <t>AwardCount</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文描述</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnglishDes</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login COG</t>
+  </si>
+  <si>
+    <t>Get 3 victories</t>
+  </si>
+  <si>
+    <t>获得活跃度</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActiveValue</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Participate in the arena 1 time</t>
+  </si>
+  <si>
+    <t>Give a friend stamina 1 time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obtain any resource stage 1 time </t>
+  </si>
+  <si>
+    <t>奖励描述</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AwardDes</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>体力1点</t>
+  </si>
+  <si>
+    <t>EXP500</t>
+  </si>
+  <si>
+    <t>金币200</t>
+  </si>
+  <si>
+    <t>EXP300</t>
+  </si>
+  <si>
+    <t>装备强化结晶100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,12 +157,14 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -149,11 +172,13 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -177,6 +202,14 @@
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -205,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -223,6 +256,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -530,21 +566,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.08984375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7265625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.36328125" style="2" customWidth="1"/>
     <col min="3" max="4" width="12.6328125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.54296875" style="2" customWidth="1"/>
     <col min="6" max="6" width="9.6328125" style="2" customWidth="1"/>
     <col min="7" max="7" width="11.81640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="7.90625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="6.453125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="6.7265625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.6328125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.1796875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="23.6328125" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -567,14 +603,20 @@
         <v>6</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" ht="13.5" x14ac:dyDescent="0.4">
@@ -591,14 +633,20 @@
         <v>7</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="G4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" ht="13.5" x14ac:dyDescent="0.4">
@@ -617,9 +665,15 @@
       <c r="G5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="H5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.25">
@@ -638,6 +692,15 @@
       <c r="G6" s="5">
         <v>100</v>
       </c>
+      <c r="H6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="1">
+        <v>5</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="14" x14ac:dyDescent="0.35">
       <c r="C7" s="1">
@@ -655,9 +718,15 @@
       <c r="G7" s="5">
         <v>100</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="H7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="1">
+        <v>25</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="14" x14ac:dyDescent="0.35">
@@ -676,6 +745,15 @@
       <c r="G8" s="5">
         <v>100</v>
       </c>
+      <c r="H8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="9">
+        <v>40</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="14" x14ac:dyDescent="0.35">
       <c r="C9" s="1">
@@ -693,6 +771,15 @@
       <c r="G9" s="5">
         <v>100</v>
       </c>
+      <c r="H9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="9">
+        <v>15</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="14" x14ac:dyDescent="0.35">
       <c r="C10" s="1">
@@ -710,193 +797,92 @@
       <c r="G10" s="5">
         <v>100</v>
       </c>
+      <c r="H10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="9">
+        <v>25</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="14" x14ac:dyDescent="0.35">
-      <c r="C11" s="1">
-        <v>2006</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="9">
-        <v>1008</v>
-      </c>
-      <c r="G11" s="5">
-        <v>100</v>
-      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.35">
-      <c r="C12" s="1">
-        <v>2007</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1001</v>
-      </c>
-      <c r="G12" s="5">
-        <v>100</v>
-      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.35">
-      <c r="C13" s="1">
-        <v>2008</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1002</v>
-      </c>
-      <c r="G13" s="5">
-        <v>100</v>
-      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.35">
-      <c r="C14" s="1">
-        <v>2009</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="9">
-        <v>1008</v>
-      </c>
-      <c r="G14" s="5">
-        <v>100</v>
-      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.35">
-      <c r="C15" s="1">
-        <v>2010</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1001</v>
-      </c>
-      <c r="G15" s="5">
-        <v>100</v>
-      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.35">
-      <c r="C16" s="1">
-        <v>2011</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1002</v>
-      </c>
-      <c r="G16" s="5">
-        <v>100</v>
-      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="5"/>
     </row>
     <row r="17" spans="3:7" ht="14" x14ac:dyDescent="0.35">
-      <c r="C17" s="1">
-        <v>2012</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="9">
-        <v>1008</v>
-      </c>
-      <c r="G17" s="5">
-        <v>100</v>
-      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="5"/>
     </row>
     <row r="18" spans="3:7" ht="14" x14ac:dyDescent="0.35">
-      <c r="C18" s="1">
-        <v>2013</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1001</v>
-      </c>
-      <c r="G18" s="5">
-        <v>100</v>
-      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="5"/>
     </row>
     <row r="19" spans="3:7" ht="14" x14ac:dyDescent="0.35">
-      <c r="C19" s="1">
-        <v>2014</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1002</v>
-      </c>
-      <c r="G19" s="5">
-        <v>100</v>
-      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="5"/>
     </row>
     <row r="20" spans="3:7" ht="14" x14ac:dyDescent="0.35">
-      <c r="C20" s="1">
-        <v>2015</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="9">
-        <v>1008</v>
-      </c>
-      <c r="G20" s="5">
-        <v>100</v>
-      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="5"/>
     </row>
     <row r="21" spans="3:7" ht="14" x14ac:dyDescent="0.35">
-      <c r="C21" s="1">
-        <v>2016</v>
-      </c>
-      <c r="D21" s="1">
-        <v>1</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" s="9">
-        <v>1001</v>
-      </c>
-      <c r="G21" s="5">
-        <v>100</v>
-      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/Excel/TaskConfig.xlsx
+++ b/Excel/TaskConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD27C05F-FD17-4EB6-9EF5-67CE23A371E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAFFC8E-03C4-404A-B005-FD1167DAD6C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24730" yWindow="1500" windowWidth="28800" windowHeight="15310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20980" yWindow="760" windowWidth="28800" windowHeight="15310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TaskConfig" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>Id</t>
   </si>
@@ -139,6 +139,30 @@
   </si>
   <si>
     <t>装备强化结晶100</t>
+  </si>
+  <si>
+    <t>活跃度道具id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActiveValueConfigId</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作ConfigId</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionConfigId</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要动作次数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NeedActionCount</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -238,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -260,6 +284,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -564,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:K21"/>
+  <dimension ref="A2:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -575,16 +604,17 @@
     <col min="1" max="1" width="21.08984375" style="2" customWidth="1"/>
     <col min="2" max="2" width="23.36328125" style="2" customWidth="1"/>
     <col min="3" max="4" width="12.6328125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.54296875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.6328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26.1796875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.08984375" style="2" customWidth="1"/>
     <col min="7" max="7" width="11.81640625" style="2" customWidth="1"/>
     <col min="8" max="8" width="10.6328125" style="2" customWidth="1"/>
     <col min="9" max="9" width="14.1796875" style="2" customWidth="1"/>
     <col min="10" max="10" width="23.6328125" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="11" max="11" width="13.81640625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -592,7 +622,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:11" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -617,9 +647,17 @@
       <c r="J3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:11" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="K3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
@@ -647,9 +685,17 @@
       <c r="J4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="K4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C5" s="4" t="s">
         <v>1</v>
       </c>
@@ -659,8 +705,8 @@
       <c r="E5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>8</v>
+      <c r="F5" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>4</v>
@@ -674,9 +720,17 @@
       <c r="J5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="K5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="C6" s="1">
         <v>2001</v>
       </c>
@@ -686,11 +740,11 @@
       <c r="E6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="1">
-        <v>1001</v>
+      <c r="F6" s="13">
+        <v>1003</v>
       </c>
       <c r="G6" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>20</v>
@@ -701,8 +755,17 @@
       <c r="J6" s="10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="14" x14ac:dyDescent="0.35">
+      <c r="K6">
+        <v>1011</v>
+      </c>
+      <c r="L6">
+        <v>10001</v>
+      </c>
+      <c r="M6" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C7" s="1">
         <v>2002</v>
       </c>
@@ -712,11 +775,11 @@
       <c r="E7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="1">
-        <v>1002</v>
+      <c r="F7" s="13">
+        <v>1008</v>
       </c>
       <c r="G7" s="5">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>21</v>
@@ -727,9 +790,17 @@
       <c r="J7" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" ht="14" x14ac:dyDescent="0.35">
+      <c r="K7">
+        <v>1011</v>
+      </c>
+      <c r="L7">
+        <v>10002</v>
+      </c>
+      <c r="M7" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C8" s="1">
         <v>2003</v>
       </c>
@@ -739,11 +810,11 @@
       <c r="E8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="9">
-        <v>1008</v>
+      <c r="F8" s="13">
+        <v>1001</v>
       </c>
       <c r="G8" s="5">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>24</v>
@@ -754,8 +825,17 @@
       <c r="J8" s="10" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="14" x14ac:dyDescent="0.35">
+      <c r="K8">
+        <v>1011</v>
+      </c>
+      <c r="L8">
+        <v>10003</v>
+      </c>
+      <c r="M8" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C9" s="1">
         <v>2004</v>
       </c>
@@ -765,11 +845,11 @@
       <c r="E9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="1">
-        <v>1001</v>
+      <c r="F9" s="13">
+        <v>1008</v>
       </c>
       <c r="G9" s="5">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>25</v>
@@ -780,8 +860,17 @@
       <c r="J9" s="10" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="14" x14ac:dyDescent="0.35">
+      <c r="K9">
+        <v>1011</v>
+      </c>
+      <c r="L9">
+        <v>10004</v>
+      </c>
+      <c r="M9" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C10" s="1">
         <v>2005</v>
       </c>
@@ -791,8 +880,8 @@
       <c r="E10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="1">
-        <v>1002</v>
+      <c r="F10" s="13">
+        <v>1009</v>
       </c>
       <c r="G10" s="5">
         <v>100</v>
@@ -806,43 +895,52 @@
       <c r="J10" s="10" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="14" x14ac:dyDescent="0.35">
+      <c r="K10">
+        <v>1011</v>
+      </c>
+      <c r="L10">
+        <v>10005</v>
+      </c>
+      <c r="M10" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="14" x14ac:dyDescent="0.35">
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="8"/>
       <c r="F11" s="9"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="14" x14ac:dyDescent="0.35">
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="8"/>
       <c r="F12" s="1"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="14" x14ac:dyDescent="0.35">
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="8"/>
       <c r="F13" s="1"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="14" x14ac:dyDescent="0.35">
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="8"/>
       <c r="F14" s="9"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="14" x14ac:dyDescent="0.35">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="8"/>
       <c r="F15" s="1"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="14" x14ac:dyDescent="0.35">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="8"/>
@@ -887,6 +985,6 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/TaskConfig.xlsx
+++ b/Excel/TaskConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAFFC8E-03C4-404A-B005-FD1167DAD6C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9FDF293-F601-4D65-B521-4D0362B4190B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20980" yWindow="760" windowWidth="28800" windowHeight="15310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -596,7 +596,7 @@
   <dimension ref="A2:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -610,7 +610,7 @@
     <col min="8" max="8" width="10.6328125" style="2" customWidth="1"/>
     <col min="9" max="9" width="14.1796875" style="2" customWidth="1"/>
     <col min="10" max="10" width="23.6328125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="13.81640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="29.1796875" style="2" customWidth="1"/>
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
